--- a/test_table definition.xlsx
+++ b/test_table definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1257AA0A-7C77-4576-B80A-88CB67A83854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C70F6-11F9-43CC-8415-657F129667CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,13 +267,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>アカウント情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>修正者</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -567,6 +560,13 @@
     <t>D.Iブログにアカウントのデータ登録・管理機能をつくりたい。</t>
     <rPh sb="19" eb="21">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1311,6 +1311,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1338,6 +1341,72 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,75 +1433,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2536,20 +2536,20 @@
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
@@ -2568,26 +2568,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="87"/>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
@@ -2606,22 +2606,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="89"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="90"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
@@ -2832,26 +2832,26 @@
       <c r="E17" s="43"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
       <c r="AA17" s="43"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
@@ -2867,24 +2867,24 @@
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
       <c r="AA18" s="43"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
@@ -2900,24 +2900,24 @@
       <c r="E19" s="43"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
@@ -3145,12 +3145,12 @@
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="90">
+      <c r="F26" s="91">
         <v>44515</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="53" t="s">
         <v>31</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD26" s="55"/>
       <c r="AE26" s="43"/>
@@ -3781,7 +3781,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3804,53 +3804,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+        <v>37</v>
+      </c>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101" t="s">
+      <c r="D2" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
@@ -3860,48 +3860,48 @@
       <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="100"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="114"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3942,10 +3942,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="115" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="116"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3961,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="66" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>70</v>
       </c>
       <c r="E7" s="74">
         <v>100</v>
@@ -3976,24 +3976,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="125"/>
+      <c r="L7" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="116"/>
       <c r="N7" s="71"/>
       <c r="O7" s="66"/>
       <c r="P7" s="72"/>
@@ -4006,10 +4006,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="25">
         <v>100</v>
@@ -4017,15 +4017,15 @@
       <c r="F8" s="26">
         <v>0</v>
       </c>
-      <c r="G8" s="123"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="117"/>
-      <c r="M8" s="118"/>
+        <v>73</v>
+      </c>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
       <c r="N8" s="27"/>
       <c r="O8" s="23"/>
       <c r="P8" s="28"/>
@@ -4035,13 +4035,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="74">
         <v>100</v>
@@ -4049,15 +4049,15 @@
       <c r="F9" s="26">
         <v>0</v>
       </c>
-      <c r="G9" s="123"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122"/>
+        <v>73</v>
+      </c>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
       <c r="N9" s="27"/>
       <c r="O9" s="23"/>
       <c r="P9" s="28"/>
@@ -4067,13 +4067,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="25">
         <v>100</v>
@@ -4081,15 +4081,15 @@
       <c r="F10" s="26">
         <v>0</v>
       </c>
-      <c r="G10" s="123"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
+        <v>73</v>
+      </c>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="27"/>
       <c r="O10" s="23"/>
       <c r="P10" s="28"/>
@@ -4099,13 +4099,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="74">
         <v>100</v>
@@ -4113,15 +4113,15 @@
       <c r="F11" s="26">
         <v>0</v>
       </c>
-      <c r="G11" s="123"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
+        <v>73</v>
+      </c>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="27"/>
       <c r="O11" s="23"/>
       <c r="P11" s="28"/>
@@ -4131,13 +4131,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="25">
         <v>255</v>
@@ -4145,19 +4145,19 @@
       <c r="F12" s="26">
         <v>0</v>
       </c>
-      <c r="G12" s="123"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="120"/>
+        <v>73</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="112"/>
       <c r="N12" s="27"/>
       <c r="O12" s="23"/>
       <c r="P12" s="28"/>
@@ -4167,13 +4167,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="25">
         <v>255</v>
@@ -4181,15 +4181,15 @@
       <c r="F13" s="26">
         <v>0</v>
       </c>
-      <c r="G13" s="123"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
+        <v>73</v>
+      </c>
+      <c r="L13" s="111"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="27"/>
       <c r="O13" s="23"/>
       <c r="P13" s="28"/>
@@ -4199,13 +4199,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
@@ -4213,17 +4213,17 @@
       <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="123"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L14" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="96"/>
       <c r="N14" s="32"/>
       <c r="O14" s="23"/>
       <c r="P14" s="28"/>
@@ -4233,13 +4233,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="25">
         <v>7</v>
@@ -4247,17 +4247,17 @@
       <c r="F15" s="26">
         <v>0</v>
       </c>
-      <c r="G15" s="123"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L15" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="96"/>
       <c r="N15" s="32"/>
       <c r="O15" s="23"/>
       <c r="P15" s="28"/>
@@ -4267,13 +4267,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="25">
         <v>100</v>
@@ -4281,15 +4281,15 @@
       <c r="F16" s="26">
         <v>0</v>
       </c>
-      <c r="G16" s="123"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
       <c r="N16" s="32"/>
       <c r="O16" s="23"/>
       <c r="P16" s="28"/>
@@ -4299,13 +4299,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="25">
         <v>100</v>
@@ -4313,15 +4313,15 @@
       <c r="F17" s="26">
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="103"/>
-      <c r="M17" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
       <c r="N17" s="32"/>
       <c r="O17" s="23"/>
       <c r="P17" s="28"/>
@@ -4331,13 +4331,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="25">
         <v>255</v>
@@ -4345,15 +4345,15 @@
       <c r="F18" s="26">
         <v>0</v>
       </c>
-      <c r="G18" s="123"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="103"/>
-      <c r="M18" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
       <c r="N18" s="32"/>
       <c r="O18" s="23"/>
       <c r="P18" s="28"/>
@@ -4363,13 +4363,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="25">
         <v>1</v>
@@ -4377,17 +4377,17 @@
       <c r="F19" s="26">
         <v>0</v>
       </c>
-      <c r="G19" s="123"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L19" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="96"/>
       <c r="N19" s="32"/>
       <c r="O19" s="23"/>
       <c r="P19" s="28"/>
@@ -4397,13 +4397,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="25">
         <v>1</v>
@@ -4411,17 +4411,17 @@
       <c r="F20" s="26">
         <v>0</v>
       </c>
-      <c r="G20" s="123"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L20" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="96"/>
       <c r="N20" s="32"/>
       <c r="O20" s="23"/>
       <c r="P20" s="28"/>
@@ -4431,25 +4431,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="123"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="103"/>
-      <c r="M21" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
       <c r="N21" s="32"/>
       <c r="O21" s="23"/>
       <c r="P21" s="28"/>
@@ -4459,36 +4459,38 @@
         <v>16</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="123"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="103"/>
-      <c r="M22" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
       <c r="N22" s="32"/>
       <c r="O22" s="23"/>
       <c r="P22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -4503,13 +4505,11 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/test_table definition.xlsx
+++ b/test_table definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C70F6-11F9-43CC-8415-657F129667CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610788A-B50A-4D36-BC3C-DDF54E0D6829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,19 +544,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ログイン処理の場合にidだけではなく、メールアドレスも主キーとしていく。</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>D.Iブログにアカウントのデータ登録・管理機能をつくりたい。</t>
     <rPh sb="19" eb="21">
       <t>カンリ</t>
@@ -567,6 +554,16 @@
     <t>アカウント登録</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メールアドレスが重複する場合はエラーになるようにする。</t>
+    <rPh sb="8" eb="10">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1341,6 +1338,33 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,33 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3781,7 +3778,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:P4"/>
+      <selection activeCell="L13" sqref="L13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3804,25 +3801,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3832,25 +3829,25 @@
       <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="122" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124" t="s">
+      <c r="D2" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
@@ -3860,48 +3857,48 @@
       <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="125"/>
-      <c r="P2" s="123"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="101"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="112"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="115"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3942,10 +3939,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="108"/>
+      <c r="M6" s="117"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3990,10 +3987,10 @@
       <c r="K7" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="116"/>
+      <c r="M7" s="125"/>
       <c r="N7" s="71"/>
       <c r="O7" s="66"/>
       <c r="P7" s="72"/>
@@ -4024,8 +4021,8 @@
       <c r="K8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
       <c r="N8" s="27"/>
       <c r="O8" s="23"/>
       <c r="P8" s="28"/>
@@ -4056,8 +4053,8 @@
       <c r="K9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="114"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="123"/>
       <c r="N9" s="27"/>
       <c r="O9" s="23"/>
       <c r="P9" s="28"/>
@@ -4088,8 +4085,8 @@
       <c r="K10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="121"/>
       <c r="N10" s="27"/>
       <c r="O10" s="23"/>
       <c r="P10" s="28"/>
@@ -4120,8 +4117,8 @@
       <c r="K11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="27"/>
       <c r="O11" s="23"/>
       <c r="P11" s="28"/>
@@ -4146,18 +4143,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="75"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>71</v>
       </c>
+      <c r="I12" s="24"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="112"/>
+      <c r="L12" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="121"/>
       <c r="N12" s="27"/>
       <c r="O12" s="23"/>
       <c r="P12" s="28"/>
@@ -4188,8 +4185,8 @@
       <c r="K13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="121"/>
       <c r="N13" s="27"/>
       <c r="O13" s="23"/>
       <c r="P13" s="28"/>
@@ -4220,10 +4217,10 @@
       <c r="K14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="95" t="s">
+      <c r="L14" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="96"/>
+      <c r="M14" s="105"/>
       <c r="N14" s="32"/>
       <c r="O14" s="23"/>
       <c r="P14" s="28"/>
@@ -4254,10 +4251,10 @@
       <c r="K15" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="95" t="s">
+      <c r="L15" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="96"/>
+      <c r="M15" s="105"/>
       <c r="N15" s="32"/>
       <c r="O15" s="23"/>
       <c r="P15" s="28"/>
@@ -4288,8 +4285,8 @@
       <c r="K16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
       <c r="N16" s="32"/>
       <c r="O16" s="23"/>
       <c r="P16" s="28"/>
@@ -4320,8 +4317,8 @@
       <c r="K17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="32"/>
       <c r="O17" s="23"/>
       <c r="P17" s="28"/>
@@ -4352,8 +4349,8 @@
       <c r="K18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="32"/>
       <c r="O18" s="23"/>
       <c r="P18" s="28"/>
@@ -4384,10 +4381,10 @@
       <c r="K19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="95" t="s">
+      <c r="L19" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="96"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="32"/>
       <c r="O19" s="23"/>
       <c r="P19" s="28"/>
@@ -4418,10 +4415,10 @@
       <c r="K20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="95" t="s">
+      <c r="L20" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="M20" s="96"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="32"/>
       <c r="O20" s="23"/>
       <c r="P20" s="28"/>
@@ -4448,8 +4445,8 @@
       <c r="K21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="32"/>
       <c r="O21" s="23"/>
       <c r="P21" s="28"/>
@@ -4476,21 +4473,19 @@
       <c r="K22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="32"/>
       <c r="O22" s="23"/>
       <c r="P22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -4505,11 +4500,13 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
